--- a/data/nuc_cell_seg_delivery_20170217/3500000543.xlsx
+++ b/data/nuc_cell_seg_delivery_20170217/3500000543.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\minipipeline_results\script_spreadsheet_20170217\3500000543\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\aibsdata\aics\AssayDevelopment\Analysis\toAnimatedCell\2017_02_17_Nuc_Cell_Seg_For_Release_Group_2\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,9 +59,6 @@
     <t>2017_02_17</t>
   </si>
   <si>
-    <t>\\aibsdata\aics\Microscopy\PRODUCTION\PIPELINE_3_Minipipeline\3500000543\ZSD2\100X_zstack</t>
-  </si>
-  <si>
     <t>3500000543_100X_20170206_E5_P2_1.czi</t>
   </si>
   <si>
@@ -606,6 +603,9 @@
   </si>
   <si>
     <t>3500000543_100X_20170206_F8_P31_1.czi_cellWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>\\aibsdata\aics\Microscopy\PRODUCTION\PIPELINE_3_Minipipeline\3500000543\ZSD2\100X_zstack\resaved</t>
   </si>
 </sst>
 </file>
@@ -924,11 +924,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:W31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="98.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -962,43 +965,43 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>48</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>49</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
-        <v>51</v>
-      </c>
       <c r="U1" t="s">
+        <v>159</v>
+      </c>
+      <c r="V1" t="s">
         <v>160</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>161</v>
-      </c>
-      <c r="W1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -1012,10 +1015,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
       <c r="F2">
         <v>0.108</v>
@@ -1033,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2">
         <v>4</v>
@@ -1042,16 +1045,16 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>54</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>55</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>56</v>
       </c>
       <c r="R2">
         <v>6.5000000000000002E-2</v>
@@ -1060,16 +1063,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1083,10 +1086,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>0.108</v>
@@ -1104,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3">
         <v>4</v>
@@ -1113,16 +1116,16 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="s">
         <v>58</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>59</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>60</v>
       </c>
       <c r="R3">
         <v>6.5000000000000002E-2</v>
@@ -1131,16 +1134,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -1154,10 +1157,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>0.108</v>
@@ -1175,7 +1178,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -1184,16 +1187,16 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s">
         <v>62</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>63</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>64</v>
       </c>
       <c r="R4">
         <v>6.5000000000000002E-2</v>
@@ -1202,16 +1205,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -1225,10 +1228,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>0.108</v>
@@ -1246,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5">
         <v>4</v>
@@ -1255,16 +1258,16 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="s">
         <v>66</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>67</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>68</v>
       </c>
       <c r="R5">
         <v>6.5000000000000002E-2</v>
@@ -1273,16 +1276,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -1296,10 +1299,10 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>0.108</v>
@@ -1317,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -1326,16 +1329,16 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s">
         <v>70</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>71</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>72</v>
       </c>
       <c r="R6">
         <v>6.5000000000000002E-2</v>
@@ -1344,16 +1347,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -1367,10 +1370,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>0.108</v>
@@ -1388,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -1397,16 +1400,16 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="s">
         <v>74</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>76</v>
       </c>
       <c r="R7">
         <v>6.5000000000000002E-2</v>
@@ -1415,16 +1418,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -1438,10 +1441,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>0.108</v>
@@ -1459,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8">
         <v>4</v>
@@ -1468,16 +1471,16 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" t="s">
         <v>78</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>79</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>80</v>
       </c>
       <c r="R8">
         <v>6.5000000000000002E-2</v>
@@ -1486,16 +1489,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -1509,10 +1512,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>0.108</v>
@@ -1530,7 +1533,7 @@
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -1539,16 +1542,16 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" t="s">
         <v>82</v>
       </c>
-      <c r="P9" t="s">
-        <v>83</v>
-      </c>
       <c r="Q9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R9">
         <v>6.5000000000000002E-2</v>
@@ -1557,16 +1560,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -1580,10 +1583,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <v>0.108</v>
@@ -1601,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -1610,16 +1613,16 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" t="s">
         <v>85</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>86</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>87</v>
       </c>
       <c r="R10">
         <v>6.5000000000000002E-2</v>
@@ -1628,16 +1631,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -1651,10 +1654,10 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11">
         <v>0.108</v>
@@ -1672,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L11">
         <v>4</v>
@@ -1681,16 +1684,16 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="s">
         <v>89</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>90</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>91</v>
       </c>
       <c r="R11">
         <v>6.5000000000000002E-2</v>
@@ -1699,16 +1702,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -1722,10 +1725,10 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12">
         <v>0.108</v>
@@ -1743,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L12">
         <v>4</v>
@@ -1752,16 +1755,16 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="s">
         <v>93</v>
       </c>
-      <c r="P12" t="s">
-        <v>94</v>
-      </c>
       <c r="Q12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R12">
         <v>6.5000000000000002E-2</v>
@@ -1770,16 +1773,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -1793,10 +1796,10 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <v>0.108</v>
@@ -1814,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L13">
         <v>4</v>
@@ -1823,16 +1826,16 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" t="s">
         <v>96</v>
       </c>
-      <c r="P13" t="s">
-        <v>97</v>
-      </c>
       <c r="Q13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R13">
         <v>6.5000000000000002E-2</v>
@@ -1841,16 +1844,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -1864,10 +1867,10 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14">
         <v>0.108</v>
@@ -1885,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L14">
         <v>4</v>
@@ -1894,16 +1897,16 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" t="s">
         <v>99</v>
       </c>
-      <c r="P14" t="s">
-        <v>100</v>
-      </c>
       <c r="Q14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R14">
         <v>6.5000000000000002E-2</v>
@@ -1912,16 +1915,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -1935,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15">
         <v>0.108</v>
@@ -1956,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L15">
         <v>4</v>
@@ -1965,16 +1968,16 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" t="s">
         <v>102</v>
       </c>
-      <c r="P15" t="s">
-        <v>103</v>
-      </c>
       <c r="Q15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R15">
         <v>6.5000000000000002E-2</v>
@@ -1983,16 +1986,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -2006,10 +2009,10 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16">
         <v>0.108</v>
@@ -2027,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L16">
         <v>4</v>
@@ -2036,16 +2039,16 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O16" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" t="s">
         <v>105</v>
       </c>
-      <c r="P16" t="s">
-        <v>106</v>
-      </c>
       <c r="Q16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R16">
         <v>6.5000000000000002E-2</v>
@@ -2054,16 +2057,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -2077,10 +2080,10 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17">
         <v>0.108</v>
@@ -2098,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L17">
         <v>4</v>
@@ -2107,16 +2110,16 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" t="s">
         <v>108</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>109</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>110</v>
       </c>
       <c r="R17">
         <v>6.5000000000000002E-2</v>
@@ -2125,16 +2128,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -2148,10 +2151,10 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <v>0.108</v>
@@ -2169,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L18">
         <v>4</v>
@@ -2178,16 +2181,16 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" t="s">
         <v>112</v>
       </c>
-      <c r="P18" t="s">
-        <v>113</v>
-      </c>
       <c r="Q18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R18">
         <v>6.5000000000000002E-2</v>
@@ -2196,16 +2199,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -2219,10 +2222,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19">
         <v>0.108</v>
@@ -2240,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L19">
         <v>4</v>
@@ -2249,16 +2252,16 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O19" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" t="s">
         <v>115</v>
       </c>
-      <c r="P19" t="s">
-        <v>116</v>
-      </c>
       <c r="Q19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R19">
         <v>6.5000000000000002E-2</v>
@@ -2267,16 +2270,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -2290,10 +2293,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20">
         <v>0.108</v>
@@ -2311,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L20">
         <v>4</v>
@@ -2320,16 +2323,16 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O20" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" t="s">
         <v>118</v>
       </c>
-      <c r="P20" t="s">
-        <v>119</v>
-      </c>
       <c r="Q20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R20">
         <v>6.5000000000000002E-2</v>
@@ -2338,16 +2341,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
@@ -2361,10 +2364,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21">
         <v>0.108</v>
@@ -2382,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L21">
         <v>4</v>
@@ -2391,16 +2394,16 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O21" t="s">
+        <v>120</v>
+      </c>
+      <c r="P21" t="s">
         <v>121</v>
       </c>
-      <c r="P21" t="s">
-        <v>122</v>
-      </c>
       <c r="Q21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R21">
         <v>6.5000000000000002E-2</v>
@@ -2409,16 +2412,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
@@ -2432,10 +2435,10 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22">
         <v>0.108</v>
@@ -2453,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L22">
         <v>4</v>
@@ -2462,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O22" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" t="s">
         <v>124</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>125</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>126</v>
       </c>
       <c r="R22">
         <v>6.5000000000000002E-2</v>
@@ -2480,16 +2483,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
@@ -2503,10 +2506,10 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23">
         <v>0.108</v>
@@ -2524,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L23">
         <v>4</v>
@@ -2533,16 +2536,16 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O23" t="s">
+        <v>127</v>
+      </c>
+      <c r="P23" t="s">
         <v>128</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>129</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>130</v>
       </c>
       <c r="R23">
         <v>6.5000000000000002E-2</v>
@@ -2551,16 +2554,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
@@ -2574,10 +2577,10 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24">
         <v>0.108</v>
@@ -2595,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L24">
         <v>4</v>
@@ -2604,16 +2607,16 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O24" t="s">
+        <v>131</v>
+      </c>
+      <c r="P24" t="s">
         <v>132</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>133</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>134</v>
       </c>
       <c r="R24">
         <v>6.5000000000000002E-2</v>
@@ -2622,16 +2625,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
@@ -2645,10 +2648,10 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25">
         <v>0.108</v>
@@ -2666,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L25">
         <v>4</v>
@@ -2675,16 +2678,16 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O25" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" t="s">
         <v>136</v>
       </c>
-      <c r="P25" t="s">
-        <v>137</v>
-      </c>
       <c r="Q25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R25">
         <v>6.5000000000000002E-2</v>
@@ -2693,16 +2696,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
@@ -2716,10 +2719,10 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26">
         <v>0.108</v>
@@ -2737,7 +2740,7 @@
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L26">
         <v>4</v>
@@ -2746,16 +2749,16 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O26" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" t="s">
         <v>139</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>140</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>141</v>
       </c>
       <c r="R26">
         <v>6.5000000000000002E-2</v>
@@ -2764,16 +2767,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
@@ -2787,10 +2790,10 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27">
         <v>0.108</v>
@@ -2808,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L27">
         <v>4</v>
@@ -2817,16 +2820,16 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O27" t="s">
+        <v>142</v>
+      </c>
+      <c r="P27" t="s">
         <v>143</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>144</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>145</v>
       </c>
       <c r="R27">
         <v>6.5000000000000002E-2</v>
@@ -2835,16 +2838,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
@@ -2858,10 +2861,10 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28">
         <v>0.108</v>
@@ -2879,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L28">
         <v>4</v>
@@ -2888,16 +2891,16 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O28" t="s">
+        <v>146</v>
+      </c>
+      <c r="P28" t="s">
         <v>147</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>148</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>149</v>
       </c>
       <c r="R28">
         <v>6.5000000000000002E-2</v>
@@ -2906,16 +2909,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
@@ -2929,10 +2932,10 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29">
         <v>0.108</v>
@@ -2950,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29">
         <v>4</v>
@@ -2959,16 +2962,16 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O29" t="s">
+        <v>150</v>
+      </c>
+      <c r="P29" t="s">
         <v>151</v>
       </c>
-      <c r="P29" t="s">
-        <v>152</v>
-      </c>
       <c r="Q29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R29">
         <v>6.5000000000000002E-2</v>
@@ -2977,16 +2980,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
@@ -3000,10 +3003,10 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30">
         <v>0.108</v>
@@ -3021,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30">
         <v>4</v>
@@ -3030,16 +3033,16 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O30" t="s">
+        <v>153</v>
+      </c>
+      <c r="P30" t="s">
         <v>154</v>
       </c>
-      <c r="P30" t="s">
-        <v>155</v>
-      </c>
       <c r="Q30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R30">
         <v>6.5000000000000002E-2</v>
@@ -3048,16 +3051,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
@@ -3071,10 +3074,10 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31">
         <v>0.108</v>
@@ -3092,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31">
         <v>4</v>
@@ -3101,16 +3104,16 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O31" t="s">
+        <v>156</v>
+      </c>
+      <c r="P31" t="s">
         <v>157</v>
       </c>
-      <c r="P31" t="s">
-        <v>158</v>
-      </c>
       <c r="Q31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R31">
         <v>6.5000000000000002E-2</v>
@@ -3119,16 +3122,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
